--- a/Weapolution2018.1/Assets/Resources/TextCsv/ToEditTutorialDialog.xlsx
+++ b/Weapolution2018.1/Assets/Resources/TextCsv/ToEditTutorialDialog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>符號</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因此想要請你們幫我尋回一樣究極武器，不過它的零件散落在各個時代，且被當代的掌權者所持有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>導致所有時代都無法進步，停滯不前，希望你們能打倒他們並尋回零件，恢復應有的秩序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,18 @@
   </si>
   <si>
     <t>啊!還有一件事，Haka你使用鍵盤R或手把Y鍵能夠知曉合成的秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此想要請你們幫我導正時空，我所保管的時間線因為一些有心人士的介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個時代產生了力量的特異點，他們利用自身優越的力量發起暴行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -495,78 +503,86 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
